--- a/Example_input_data/example_retreattransect_input.xlsx
+++ b/Example_input_data/example_retreattransect_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.5\Example_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.8\Example_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,9 +65,6 @@
     <t>26-Al conc. (atoms/g)</t>
   </si>
   <si>
-    <t>26-Be conc. 1 sigma (atoms/g)</t>
-  </si>
-  <si>
     <t>Year the sample was collected</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Swe-1_Cuzzone</t>
+  </si>
+  <si>
+    <t>26-Al conc. 1 sigma (atoms/g)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,36 +537,36 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -629,12 +629,12 @@
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -697,12 +697,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -765,12 +765,12 @@
         <v>0</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,12 +833,12 @@
         <v>0</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -901,12 +901,12 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -969,12 +969,12 @@
         <v>0</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1105,12 +1105,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1173,12 +1173,12 @@
         <v>0</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1241,12 +1241,12 @@
         <v>0</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
